--- a/Doc/Journal-de-Travail_NomPrénom.xlsx
+++ b/Doc/Journal-de-Travail_NomPrénom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27609"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/pq17tmn_eduvaud_ch/Documents/ETML/CID2B/4/P_Passion_Lecture/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{48E22AA5-B33F-4A25-A7B6-F76100878FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6C98DE-B1BB-428F-912E-939EF2FFFA28}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{48E22AA5-B33F-4A25-A7B6-F76100878FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBC5675-4B9D-46BC-8D46-87FEF214CD7F}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -49,25 +49,13 @@
     <t>Auteur:</t>
   </si>
   <si>
+    <t>Toledo Adrian</t>
+  </si>
+  <si>
     <t>Projet:</t>
   </si>
   <si>
-    <t>Analyse</t>
-  </si>
-  <si>
-    <t>Développement</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Présentation</t>
+    <t>P_App - 335 - Passion Lecture</t>
   </si>
   <si>
     <t>Temps total:</t>
@@ -76,13 +64,124 @@
     <t>Date:</t>
   </si>
   <si>
+    <t>18.03.2024  au 27.05.2024</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
     <t>Semaine</t>
   </si>
   <si>
     <t>Jour</t>
   </si>
   <si>
+    <t>heure</t>
+  </si>
+  <si>
+    <t>min.</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Remarque / problème</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Lire le cahiers de charges et télécharger les documents du projet</t>
+  </si>
+  <si>
+    <t>Création du répertoire pour le projet et remplissage du journal de travail.</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Conception de maquettes papier : écran d'accueil, menu bibliothèque, lecture de livre et ajout de livre</t>
+  </si>
+  <si>
+    <t>Développement</t>
+  </si>
+  <si>
+    <t>Maquettes digitales : projet commencé mais non terminé dans figma en raison de problèmes techniques.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Récupération de l'ancien projet REST API</t>
+  </si>
+  <si>
+    <t>Création du projet avec Maui</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Création de la page d'accueil : logo, nom de l'app et nom de l'entreprise</t>
+  </si>
+  <si>
+    <t>Présentation</t>
+  </si>
+  <si>
+    <t>Recherche d'informations sur la documentation de  Maui</t>
+  </si>
+  <si>
+    <t>Développement d'un site web pour une bibliothèque de livres : Titre: Library, Book: Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Insertion des images sur xml pour les livres</t>
+  </si>
+  <si>
+    <t>Créer des fonctions dans les boutons pour changer de page.</t>
+  </si>
+  <si>
+    <t>Création de GitHub et enregistrement des fichiers</t>
+  </si>
+  <si>
+    <t>De retour de vacances : lire ma journée de travail, télécharger des documents depuis onedrive</t>
+  </si>
+  <si>
+    <t>Problème technique : l’application d’émulation ne fonctionne pas et je dois la télécharger à nouveau (4,2 Go)</t>
+  </si>
+  <si>
+    <t>Télécharger le Github Desktop et récupérer le projet précédent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation du mode débogage via le port USB de mon appareil mobile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème Figma dans le navigateur. Solution : téléchargez Figma desktop et travaillez sur les maquettes </t>
+  </si>
+  <si>
+    <t>Maquettes de la page d'accueil et de la bibliothèque</t>
+  </si>
+  <si>
+    <t>Maquette de la visualisation d'une livre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur le maquette : ajouter la recherche par tags et le tri par date ou par nom alphabétique. </t>
+  </si>
+  <si>
+    <t>Récupération de l'API du projet backend 295 et l'adaptation du code à ce projet</t>
+  </si>
+  <si>
+    <t>Heures</t>
+  </si>
+  <si>
+    <t>Minutes</t>
   </si>
   <si>
     <t>Type d'activité</t>
@@ -91,79 +190,7 @@
     <t>Total heures</t>
   </si>
   <si>
-    <t>Temps</t>
-  </si>
-  <si>
-    <t>min.</t>
-  </si>
-  <si>
-    <t>Heures</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>18.03.2024  au 27.05.2024</t>
-  </si>
-  <si>
-    <t>P_App - 335 - Passion Lecture</t>
-  </si>
-  <si>
-    <t>heure</t>
-  </si>
-  <si>
-    <t>Activité</t>
-  </si>
-  <si>
-    <t>Remarque / problème</t>
-  </si>
-  <si>
-    <t>Toledo Adrian</t>
-  </si>
-  <si>
-    <t>Lire le cahiers de charges et télécharger les documents du projet</t>
-  </si>
-  <si>
-    <t>Création du répertoire pour le projet et remplissage du journal de travail.</t>
-  </si>
-  <si>
-    <t>Conception de maquettes papier : écran d'accueil, menu bibliothèque, lecture de livre et ajout de livre</t>
-  </si>
-  <si>
-    <t>Maquettes digitales : projet commencé mais non terminé dans figma en raison de problèmes techniques.</t>
-  </si>
-  <si>
-    <t>Création du projet avec Maui</t>
-  </si>
-  <si>
-    <t>Création de la page d'accueil : logo, nom de l'app et nom de l'entreprise</t>
-  </si>
-  <si>
-    <t>Récupération de l'ancien projet REST API</t>
-  </si>
-  <si>
-    <t>Recherche d'informations sur la documentation de  Maui</t>
-  </si>
-  <si>
-    <t>Création de GitHub et enregistrement des fichiers</t>
-  </si>
-  <si>
-    <t>Développement d'un site web pour une bibliothèque de livres : Titre: Library, Book: Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Insertion des images sur xml pour les livres</t>
-  </si>
-  <si>
-    <t>Créer des fonctions dans les boutons pour changer de page.</t>
   </si>
 </sst>
 </file>
@@ -178,7 +205,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +283,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -347,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,6 +506,10 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +850,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1027,7 +1064,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -1084,7 +1121,7 @@
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2916666666666671E-2</c:v>
+                  <c:v>0.10416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1099,10 +1136,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,7 +1196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1196,7 +1233,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2014,11 +2051,11 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="6" topLeftCell="C19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2035,7 +2072,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2046,40 +2083,40 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25">
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 0 minutes</v>
+        <v>0 jours 6 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="23.25" hidden="1">
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
@@ -2087,45 +2124,45 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="C5" s="56" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="56"/>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>13</v>
@@ -2138,14 +2175,14 @@
         <v>15</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>13</v>
@@ -2158,14 +2195,14 @@
         <v>15</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2174,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="31.5">
       <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>13</v>
@@ -2187,14 +2224,14 @@
         <v>15</v>
       </c>
       <c r="E9" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -2203,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="31.5">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>13</v>
@@ -2216,14 +2253,14 @@
         <v>15</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -2232,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>13</v>
@@ -2245,14 +2282,14 @@
         <v>15</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -2261,7 +2298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>13</v>
@@ -2274,14 +2311,14 @@
         <v>15</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -2290,7 +2327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>13</v>
@@ -2303,14 +2340,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>6</v>
@@ -2319,7 +2356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>13</v>
@@ -2332,14 +2369,14 @@
         <v>15</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>7</v>
@@ -2348,7 +2385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>13</v>
@@ -2361,14 +2398,14 @@
         <v>15</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>8</v>
@@ -2377,7 +2414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>13</v>
@@ -2390,17 +2427,17 @@
         <v>15</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>13</v>
@@ -2413,17 +2450,17 @@
         <v>15</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>13</v>
@@ -2436,152 +2473,214 @@
         <v>15</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="str">
+    <row r="19" spans="1:15" ht="16.5">
+      <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="51">
+        <v>45397</v>
+      </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="53">
+        <v>15</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+    <row r="20" spans="1:15" ht="32.25">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45397</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="49">
+        <v>15</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="17" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="37"/>
+      <c r="D21" s="53">
+        <v>15</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v/>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="49">
+        <v>15</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="32.25">
       <c r="A23" s="17" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="37"/>
+      <c r="D23" s="53">
+        <v>15</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v/>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>15</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="17" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v/>
       </c>
       <c r="B25" s="51"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="53">
+        <v>15</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="37"/>
+      <c r="D26" s="49">
+        <v>15</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="17" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37"/>
+      <c r="D27" s="53">
+        <v>30</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="49">
+        <v>15</v>
+      </c>
       <c r="E28" s="50"/>
       <c r="F28" s="36"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="17" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="D29" s="53">
+        <v>15</v>
+      </c>
       <c r="E29" s="54"/>
       <c r="F29" s="36"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2593,7 +2692,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="17" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2605,7 +2704,7 @@
       <c r="F31" s="36"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2617,7 +2716,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="17" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2629,7 +2728,7 @@
       <c r="F33" s="36"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2641,7 +2740,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="17" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2653,7 +2752,7 @@
       <c r="F35" s="37"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2665,7 +2764,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="17" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2677,7 +2776,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2689,7 +2788,7 @@
       <c r="F38" s="36"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="17" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2701,7 +2800,7 @@
       <c r="F39" s="36"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2713,7 +2812,7 @@
       <c r="F40" s="36"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="17" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2725,7 +2824,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2737,7 +2836,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="17" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2749,7 +2848,7 @@
       <c r="F43" s="36"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2761,7 +2860,7 @@
       <c r="F44" s="36"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="17" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2773,7 +2872,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2785,7 +2884,7 @@
       <c r="F46" s="36"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2797,7 +2896,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2809,7 +2908,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="17" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2821,7 +2920,7 @@
       <c r="F49" s="36"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2833,7 +2932,7 @@
       <c r="F50" s="36"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2845,7 +2944,7 @@
       <c r="F51" s="36"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2857,7 +2956,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="17" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2869,7 +2968,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2881,7 +2980,7 @@
       <c r="F54" s="36"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="17" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2893,7 +2992,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2905,7 +3004,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="17" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2917,7 +3016,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2929,7 +3028,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="17" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -2941,7 +3040,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -2953,7 +3052,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="17" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -2965,7 +3064,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -2977,7 +3076,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="17" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -2989,7 +3088,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -3001,7 +3100,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="17" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -3013,7 +3112,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -3025,7 +3124,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="17" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -3037,7 +3136,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -3049,7 +3148,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="17" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -3061,7 +3160,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -3073,7 +3172,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="17" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3085,7 +3184,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3097,7 +3196,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="17" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3109,7 +3208,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3121,7 +3220,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="17" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3133,7 +3232,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3145,7 +3244,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="17" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3157,7 +3256,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3169,7 +3268,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="17" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3181,7 +3280,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3193,7 +3292,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3205,7 +3304,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3217,7 +3316,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="17" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3229,7 +3328,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3241,7 +3340,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="17" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3253,7 +3352,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3265,7 +3364,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3277,7 +3376,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3289,7 +3388,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="17" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3301,7 +3400,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3313,7 +3412,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3325,7 +3424,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3337,7 +3436,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3349,7 +3448,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3361,7 +3460,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3373,7 +3472,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3385,7 +3484,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="17" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3397,7 +3496,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3409,7 +3508,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3421,7 +3520,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3433,7 +3532,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3445,7 +3544,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3457,7 +3556,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="17" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3469,7 +3568,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3481,7 +3580,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3493,7 +3592,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3505,7 +3604,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3517,7 +3616,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3529,7 +3628,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="17" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3541,7 +3640,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3553,7 +3652,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3565,7 +3664,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3577,7 +3676,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="17" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3589,7 +3688,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3601,7 +3700,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3613,7 +3712,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3625,7 +3724,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3637,7 +3736,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3649,7 +3748,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3661,7 +3760,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3673,7 +3772,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3685,7 +3784,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3697,7 +3796,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="17" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3709,7 +3808,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3721,7 +3820,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="17" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3733,7 +3832,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3745,7 +3844,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3757,7 +3856,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3769,7 +3868,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3781,7 +3880,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3793,7 +3892,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3805,7 +3904,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3817,7 +3916,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3829,7 +3928,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3841,7 +3940,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3853,7 +3952,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3865,7 +3964,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="17" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3877,7 +3976,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3889,7 +3988,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3901,7 +4000,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3913,7 +4012,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3925,7 +4024,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3937,7 +4036,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="17" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -3949,7 +4048,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -3961,7 +4060,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="17" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -3973,7 +4072,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -3985,7 +4084,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="17" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -3997,7 +4096,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4009,7 +4108,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="17" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4021,7 +4120,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4033,7 +4132,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="17" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4045,7 +4144,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4057,7 +4156,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="17" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4069,7 +4168,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4081,7 +4180,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="17" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4093,7 +4192,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4105,7 +4204,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="17" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4117,7 +4216,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4129,7 +4228,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="17" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4141,7 +4240,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4153,7 +4252,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="17" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4165,7 +4264,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4177,7 +4276,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="17" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4189,7 +4288,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4201,7 +4300,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="17" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4213,7 +4312,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4225,7 +4324,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="17" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4237,7 +4336,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4249,7 +4348,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="17" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4261,7 +4360,7 @@
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4273,7 +4372,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="17" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4285,7 +4384,7 @@
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4297,7 +4396,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="17" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4309,7 +4408,7 @@
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4321,7 +4420,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="17" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4333,7 +4432,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4345,7 +4444,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="17" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4357,7 +4456,7 @@
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4369,7 +4468,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="17" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4381,7 +4480,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4393,7 +4492,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="17" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4405,7 +4504,7 @@
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4417,7 +4516,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="17" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4429,7 +4528,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4441,7 +4540,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="17" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4453,7 +4552,7 @@
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4465,7 +4564,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="17" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4477,7 +4576,7 @@
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4489,7 +4588,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="17" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4501,7 +4600,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4513,7 +4612,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="17" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4525,7 +4624,7 @@
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4537,7 +4636,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="17" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4549,7 +4648,7 @@
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4561,7 +4660,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="17" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4573,7 +4672,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4585,7 +4684,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="17" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4597,7 +4696,7 @@
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4609,7 +4708,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="17" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4621,7 +4720,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4633,7 +4732,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="17" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4645,7 +4744,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4657,7 +4756,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="17" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4669,7 +4768,7 @@
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4681,7 +4780,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="17" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4693,7 +4792,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4705,7 +4804,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="17" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4717,7 +4816,7 @@
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4729,7 +4828,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="17" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4741,7 +4840,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4753,7 +4852,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="17" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4765,7 +4864,7 @@
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4777,7 +4876,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="17" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4789,7 +4888,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4801,7 +4900,7 @@
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="17" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4813,7 +4912,7 @@
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4825,7 +4924,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="17" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4837,7 +4936,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4849,7 +4948,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="17" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4861,7 +4960,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4873,7 +4972,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="17" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4885,7 +4984,7 @@
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4897,7 +4996,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="17" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4909,7 +5008,7 @@
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4921,7 +5020,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="17" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4933,7 +5032,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="18"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -4945,7 +5044,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="17" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -4957,7 +5056,7 @@
       <c r="F227" s="18"/>
       <c r="G227" s="18"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -4969,7 +5068,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="17" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -4981,7 +5080,7 @@
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -4993,7 +5092,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="17" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5005,7 +5104,7 @@
       <c r="F231" s="18"/>
       <c r="G231" s="18"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5017,7 +5116,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="17" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5029,7 +5128,7 @@
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5041,7 +5140,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="17" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5053,7 +5152,7 @@
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5065,7 +5164,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="17" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5077,7 +5176,7 @@
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5089,7 +5188,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="17" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5101,7 +5200,7 @@
       <c r="F239" s="18"/>
       <c r="G239" s="18"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5113,7 +5212,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="17" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5125,7 +5224,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5137,7 +5236,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="17" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5149,7 +5248,7 @@
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5161,7 +5260,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="17" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5173,7 +5272,7 @@
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5185,7 +5284,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="17" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5197,7 +5296,7 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5209,7 +5308,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="17" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5221,7 +5320,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5233,7 +5332,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="17" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5245,7 +5344,7 @@
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5257,7 +5356,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="17" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5269,7 +5368,7 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5281,7 +5380,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="17" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5293,7 +5392,7 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5305,7 +5404,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="17" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5317,7 +5416,7 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5329,7 +5428,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="17" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5341,7 +5440,7 @@
       <c r="F259" s="18"/>
       <c r="G259" s="18"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5353,7 +5452,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="17" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5365,7 +5464,7 @@
       <c r="F261" s="18"/>
       <c r="G261" s="18"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5377,7 +5476,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="17" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5389,7 +5488,7 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5401,7 +5500,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="17" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5413,7 +5512,7 @@
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5425,7 +5524,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="17" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5437,7 +5536,7 @@
       <c r="F267" s="18"/>
       <c r="G267" s="18"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5449,7 +5548,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="17" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5461,7 +5560,7 @@
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5473,7 +5572,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="17" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5485,7 +5584,7 @@
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5497,7 +5596,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="17" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5509,7 +5608,7 @@
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5521,7 +5620,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="17" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5533,7 +5632,7 @@
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5545,7 +5644,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" s="17" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5557,7 +5656,7 @@
       <c r="F277" s="18"/>
       <c r="G277" s="18"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5569,7 +5668,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" s="17" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5581,7 +5680,7 @@
       <c r="F279" s="18"/>
       <c r="G279" s="18"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5593,7 +5692,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" s="17" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5605,7 +5704,7 @@
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5617,7 +5716,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" s="17" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5629,7 +5728,7 @@
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5641,7 +5740,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" s="17" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5653,7 +5752,7 @@
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5665,7 +5764,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" s="17" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5677,7 +5776,7 @@
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5689,7 +5788,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" s="17" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5701,7 +5800,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5713,7 +5812,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" s="17" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5725,7 +5824,7 @@
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5737,7 +5836,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" s="17" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5749,7 +5848,7 @@
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5761,7 +5860,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" s="17" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5773,7 +5872,7 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5785,7 +5884,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" s="17" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5797,7 +5896,7 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5809,7 +5908,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" s="17" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5821,7 +5920,7 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5833,7 +5932,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" s="17" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5845,7 +5944,7 @@
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5857,7 +5956,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" s="17" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5869,7 +5968,7 @@
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5881,7 +5980,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" s="17" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5893,7 +5992,7 @@
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5905,7 +6004,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" s="17" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5917,7 +6016,7 @@
       <c r="F307" s="18"/>
       <c r="G307" s="18"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5929,7 +6028,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" s="17" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -5941,7 +6040,7 @@
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -5953,7 +6052,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" s="17" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -5965,7 +6064,7 @@
       <c r="F311" s="18"/>
       <c r="G311" s="18"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -5977,7 +6076,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" s="17" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -5989,7 +6088,7 @@
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6001,7 +6100,7 @@
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" s="17" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6013,7 +6112,7 @@
       <c r="F315" s="18"/>
       <c r="G315" s="18"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6025,7 +6124,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" s="17" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6037,7 +6136,7 @@
       <c r="F317" s="18"/>
       <c r="G317" s="18"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6049,7 +6148,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" s="17" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6061,7 +6160,7 @@
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6073,7 +6172,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" s="17" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6085,7 +6184,7 @@
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6097,7 +6196,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" s="17" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6109,7 +6208,7 @@
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6121,7 +6220,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" s="17" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6133,7 +6232,7 @@
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6145,7 +6244,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" s="17" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6157,7 +6256,7 @@
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6169,7 +6268,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" s="17" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6181,7 +6280,7 @@
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6193,7 +6292,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" s="17" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6205,7 +6304,7 @@
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6217,7 +6316,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" s="17" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6229,7 +6328,7 @@
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6241,7 +6340,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" s="17" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6253,7 +6352,7 @@
       <c r="F335" s="18"/>
       <c r="G335" s="18"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6265,7 +6364,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="17" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6277,7 +6376,7 @@
       <c r="F337" s="18"/>
       <c r="G337" s="18"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6289,7 +6388,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="17" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6301,7 +6400,7 @@
       <c r="F339" s="18"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6313,7 +6412,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" s="17" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6325,7 +6424,7 @@
       <c r="F341" s="18"/>
       <c r="G341" s="18"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6337,7 +6436,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" s="17" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6349,7 +6448,7 @@
       <c r="F343" s="18"/>
       <c r="G343" s="18"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6361,7 +6460,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="17" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6373,7 +6472,7 @@
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6385,7 +6484,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="17" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6397,7 +6496,7 @@
       <c r="F347" s="18"/>
       <c r="G347" s="18"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6409,7 +6508,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" s="17" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6421,7 +6520,7 @@
       <c r="F349" s="18"/>
       <c r="G349" s="18"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6433,7 +6532,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="17" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6445,7 +6544,7 @@
       <c r="F351" s="18"/>
       <c r="G351" s="18"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6457,7 +6556,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" s="17" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6469,7 +6568,7 @@
       <c r="F353" s="18"/>
       <c r="G353" s="18"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6481,7 +6580,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" s="17" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6493,7 +6592,7 @@
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6505,7 +6604,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" s="17" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6517,7 +6616,7 @@
       <c r="F357" s="18"/>
       <c r="G357" s="18"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6529,7 +6628,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" s="17" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6541,7 +6640,7 @@
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6553,7 +6652,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" s="17" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6565,7 +6664,7 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6577,7 +6676,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" s="17" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6589,7 +6688,7 @@
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6601,7 +6700,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" s="17" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6613,7 +6712,7 @@
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6625,7 +6724,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" s="17" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6637,7 +6736,7 @@
       <c r="F367" s="18"/>
       <c r="G367" s="18"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6649,7 +6748,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" s="17" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6661,7 +6760,7 @@
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6673,7 +6772,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" s="17" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6685,7 +6784,7 @@
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6697,7 +6796,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" s="17" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6709,7 +6808,7 @@
       <c r="F373" s="18"/>
       <c r="G373" s="18"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6721,7 +6820,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" s="17" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6733,7 +6832,7 @@
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6745,7 +6844,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" s="17" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6757,7 +6856,7 @@
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6769,7 +6868,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" s="17" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6781,7 +6880,7 @@
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6793,7 +6892,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" s="17" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6805,7 +6904,7 @@
       <c r="F381" s="18"/>
       <c r="G381" s="18"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6817,7 +6916,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" s="17" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6829,7 +6928,7 @@
       <c r="F383" s="18"/>
       <c r="G383" s="18"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6841,7 +6940,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" s="17" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6853,7 +6952,7 @@
       <c r="F385" s="18"/>
       <c r="G385" s="18"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6865,7 +6964,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" s="17" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6877,7 +6976,7 @@
       <c r="F387" s="18"/>
       <c r="G387" s="18"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6889,7 +6988,7 @@
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" s="17" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6901,7 +7000,7 @@
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6913,7 +7012,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" s="17" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6925,7 +7024,7 @@
       <c r="F391" s="18"/>
       <c r="G391" s="18"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6937,7 +7036,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" s="17" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -6949,7 +7048,7 @@
       <c r="F393" s="18"/>
       <c r="G393" s="18"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -6961,7 +7060,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" s="17" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -6973,7 +7072,7 @@
       <c r="F395" s="18"/>
       <c r="G395" s="18"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -6985,7 +7084,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" s="17" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -6997,7 +7096,7 @@
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7009,7 +7108,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" s="17" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7021,7 +7120,7 @@
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7033,7 +7132,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" s="17" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7045,7 +7144,7 @@
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7057,7 +7156,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" s="17" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7069,7 +7168,7 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7081,7 +7180,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" s="17" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7093,7 +7192,7 @@
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7105,7 +7204,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" s="17" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7117,7 +7216,7 @@
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7129,7 +7228,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" s="17" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7141,7 +7240,7 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7153,7 +7252,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" s="17" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7165,7 +7264,7 @@
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7177,7 +7276,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" s="17" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7189,7 +7288,7 @@
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7201,7 +7300,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" s="17" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7213,7 +7312,7 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7225,7 +7324,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" s="17" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7237,7 +7336,7 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7249,7 +7348,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" s="17" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7261,7 +7360,7 @@
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7273,7 +7372,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" s="17" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7285,7 +7384,7 @@
       <c r="F421" s="18"/>
       <c r="G421" s="18"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7297,7 +7396,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" s="17" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7309,7 +7408,7 @@
       <c r="F423" s="18"/>
       <c r="G423" s="18"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7321,7 +7420,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" s="17" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7333,7 +7432,7 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7345,7 +7444,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" s="17" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7357,7 +7456,7 @@
       <c r="F427" s="18"/>
       <c r="G427" s="18"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7369,7 +7468,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" s="17" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7381,7 +7480,7 @@
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7393,7 +7492,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" s="17" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7405,7 +7504,7 @@
       <c r="F431" s="18"/>
       <c r="G431" s="18"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7417,7 +7516,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" s="17" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7429,7 +7528,7 @@
       <c r="F433" s="18"/>
       <c r="G433" s="18"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7441,7 +7540,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" s="17" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7453,7 +7552,7 @@
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7465,7 +7564,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" s="17" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7477,7 +7576,7 @@
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7489,7 +7588,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" s="17" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7501,7 +7600,7 @@
       <c r="F439" s="18"/>
       <c r="G439" s="18"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7513,7 +7612,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" s="17" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7525,7 +7624,7 @@
       <c r="F441" s="18"/>
       <c r="G441" s="18"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7537,7 +7636,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" s="17" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7549,7 +7648,7 @@
       <c r="F443" s="18"/>
       <c r="G443" s="18"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7561,7 +7660,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" s="17" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7573,7 +7672,7 @@
       <c r="F445" s="18"/>
       <c r="G445" s="18"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7585,7 +7684,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" s="17" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7597,7 +7696,7 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7609,7 +7708,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" s="17" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7621,7 +7720,7 @@
       <c r="F449" s="18"/>
       <c r="G449" s="18"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7633,7 +7732,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" s="17" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7645,7 +7744,7 @@
       <c r="F451" s="18"/>
       <c r="G451" s="18"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7657,7 +7756,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" s="17" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7669,7 +7768,7 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7681,7 +7780,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" s="17" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7693,7 +7792,7 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7705,7 +7804,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" s="17" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7717,7 +7816,7 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7729,7 +7828,7 @@
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" s="17" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7741,7 +7840,7 @@
       <c r="F459" s="18"/>
       <c r="G459" s="18"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7753,7 +7852,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" s="17" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7765,7 +7864,7 @@
       <c r="F461" s="18"/>
       <c r="G461" s="18"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7777,7 +7876,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" s="17" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7789,7 +7888,7 @@
       <c r="F463" s="18"/>
       <c r="G463" s="18"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7801,7 +7900,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" s="17" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7813,7 +7912,7 @@
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7825,7 +7924,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" s="17" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7837,7 +7936,7 @@
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7849,7 +7948,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" s="17" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7861,7 +7960,7 @@
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7873,7 +7972,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" s="17" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7885,7 +7984,7 @@
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7897,7 +7996,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" s="17" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7909,7 +8008,7 @@
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7921,7 +8020,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" s="17" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7933,7 +8032,7 @@
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -7945,7 +8044,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" s="17" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -7957,7 +8056,7 @@
       <c r="F477" s="18"/>
       <c r="G477" s="18"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -7969,7 +8068,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7">
       <c r="A479" s="17" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -7981,7 +8080,7 @@
       <c r="F479" s="18"/>
       <c r="G479" s="18"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -7993,7 +8092,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" s="17" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8005,7 +8104,7 @@
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8017,7 +8116,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" s="17" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8029,7 +8128,7 @@
       <c r="F483" s="18"/>
       <c r="G483" s="18"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8041,7 +8140,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" s="17" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8053,7 +8152,7 @@
       <c r="F485" s="18"/>
       <c r="G485" s="18"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8065,7 +8164,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" s="17" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8077,7 +8176,7 @@
       <c r="F487" s="18"/>
       <c r="G487" s="18"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8089,7 +8188,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7">
       <c r="A489" s="17" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8101,7 +8200,7 @@
       <c r="F489" s="18"/>
       <c r="G489" s="18"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8113,7 +8212,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" s="17" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8125,7 +8224,7 @@
       <c r="F491" s="18"/>
       <c r="G491" s="18"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8137,7 +8236,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7">
       <c r="A493" s="17" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8149,7 +8248,7 @@
       <c r="F493" s="18"/>
       <c r="G493" s="18"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8161,7 +8260,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" s="17" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8173,7 +8272,7 @@
       <c r="F495" s="18"/>
       <c r="G495" s="18"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8185,7 +8284,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7">
       <c r="A497" s="17" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8197,7 +8296,7 @@
       <c r="F497" s="18"/>
       <c r="G497" s="18"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8209,7 +8308,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7">
       <c r="A499" s="17" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8221,7 +8320,7 @@
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8233,7 +8332,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" s="17" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8245,7 +8344,7 @@
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8257,7 +8356,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" s="17" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8269,7 +8368,7 @@
       <c r="F503" s="18"/>
       <c r="G503" s="18"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8281,7 +8380,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" s="17" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8293,7 +8392,7 @@
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8305,7 +8404,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" s="17" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8317,7 +8416,7 @@
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8329,7 +8428,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7">
       <c r="A509" s="17" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8341,7 +8440,7 @@
       <c r="F509" s="18"/>
       <c r="G509" s="18"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8353,7 +8452,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" s="17" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8365,7 +8464,7 @@
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8377,7 +8476,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7">
       <c r="A513" s="17" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8389,7 +8488,7 @@
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8401,7 +8500,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7">
       <c r="A515" s="17" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8413,7 +8512,7 @@
       <c r="F515" s="18"/>
       <c r="G515" s="18"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8425,7 +8524,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7">
       <c r="A517" s="17" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8437,7 +8536,7 @@
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8449,7 +8548,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" s="17" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8461,7 +8560,7 @@
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8473,7 +8572,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7">
       <c r="A521" s="17" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8485,7 +8584,7 @@
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8497,7 +8596,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7">
       <c r="A523" s="17" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8509,7 +8608,7 @@
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8521,7 +8620,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7">
       <c r="A525" s="17" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8533,7 +8632,7 @@
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8545,7 +8644,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7">
       <c r="A527" s="17" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8557,7 +8656,7 @@
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8569,7 +8668,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7">
       <c r="A529" s="17" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8581,7 +8680,7 @@
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8593,7 +8692,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7">
       <c r="A531" s="17" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8605,7 +8704,7 @@
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8674,10 +8773,10 @@
   <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" hidden="1" customWidth="1"/>
@@ -8685,21 +8784,21 @@
     <col min="4" max="4" width="13.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8717,14 +8816,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8732,10 +8831,10 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8753,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8771,7 +8870,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8789,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8807,10 +8906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C10" s="38" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8818,13 +8917,13 @@
       </c>
       <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8832,19 +8931,19 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="C12" s="24" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="D14" s="39"/>
     </row>
   </sheetData>
@@ -8855,6 +8954,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9077,60 +9196,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}"/>
 </file>